--- a/biology/Botanique/Forêt_de_Aïn_Taya/Forêt_de_Aïn_Taya.xlsx
+++ b/biology/Botanique/Forêt_de_Aïn_Taya/Forêt_de_Aïn_Taya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_A%C3%AFn_Taya</t>
+          <t>Forêt_de_Aïn_Taya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Aïn Taya ou parc de Boussekloul ou bois de Bousaqloul est une forêt située à Aïn Taya dans la wilaya d'Alger. Cette forêt est gérée par la Conservation des forêts d'Alger (CFA) sous la tutelle de la Direction générale des forêts (DGF).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_A%C3%AFn_Taya</t>
+          <t>Forêt_de_Aïn_Taya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt d'Aïn Taya est située à 18 kilomètres à l'est d'Alger, à 70 kilomètres à l'est de Tipaza et à 4 kilomètres de la mer Méditerranée[6]. Elle est localisée dans la commune d'Aïn Taya dans la Mitidja de la basse Kabylie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt d'Aïn Taya est située à 18 kilomètres à l'est d'Alger, à 70 kilomètres à l'est de Tipaza et à 4 kilomètres de la mer Méditerranée. Elle est localisée dans la commune d'Aïn Taya dans la Mitidja de la basse Kabylie.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_A%C3%AFn_Taya</t>
+          <t>Forêt_de_Aïn_Taya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt d'Aïn Taya est régie par le décret no 84-45 du 18 février 1984[15], modifié et complété par le décret no 07-09 du 11 janvier 2007[16]. La forêt a une superficie d'environ 5 hectares sur une longueur de 0,9 kilomètre[17]. Elle est située à l’ouest de la commune d'Aïn Taya dans le quartier de Diar El Gherb[18],[19].
-Les essences présentes sont le pin maritime et le cyprès[20],[21]. Ces cyprès permettent à cette forêt d'être fréquentée par les familles et les amoureux de la nature puisque des bancs et des équipements ludiques y ont été installés[22]. Les visiteurs peuvent s’adonner aux plaisirs de la promenade et des jeux[23].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt d'Aïn Taya est régie par le décret no 84-45 du 18 février 1984, modifié et complété par le décret no 07-09 du 11 janvier 2007. La forêt a une superficie d'environ 5 hectares sur une longueur de 0,9 kilomètre. Elle est située à l’ouest de la commune d'Aïn Taya dans le quartier de Diar El Gherb,.
+Les essences présentes sont le pin maritime et le cyprès,. Ces cyprès permettent à cette forêt d'être fréquentée par les familles et les amoureux de la nature puisque des bancs et des équipements ludiques y ont été installés. Les visiteurs peuvent s’adonner aux plaisirs de la promenade et des jeux.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_A%C3%AFn_Taya</t>
+          <t>Forêt_de_Aïn_Taya</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt d'Aïn Taya a souffert de l'installation d'un bidonville érigé dans son milieu forestier. La démolition de ce bidonville a permis d'inscrire ce bois de Boussekloul dans le plan national de reboisement pour son réaménagement et sa réhabilitation.
-La conservation des forêts d'Alger a organisé en 2015 une opération de reboisement de ce site forestier et espace vert en y plantant des arbustes, entre pin d'Alep, cèdres et cyprès. Cette petite forêt, qui compte nombre d’aménagements, est cernée par une clôture en fer forgé[24].
+La conservation des forêts d'Alger a organisé en 2015 une opération de reboisement de ce site forestier et espace vert en y plantant des arbustes, entre pin d'Alep, cèdres et cyprès. Cette petite forêt, qui compte nombre d’aménagements, est cernée par une clôture en fer forgé.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_A%C3%AFn_Taya</t>
+          <t>Forêt_de_Aïn_Taya</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,18 +625,175 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La faune de la forêt d'Aïn Taya est riche en diversité zoologique, ornithologique et entomologique[25].
-Mammifères
-Hérisson d'Algérie
-On rencontre le hérisson d'Algérie (Atelerix algirus) dans cette forêt algéroise. C'est un hérisson à ventre blanc vivant dans les régions côtières d'Algérie. Il est de couleur pâle et pèse de 700 à 950 g. Ce hérisson est une espèce protégée sur tout le territoire algérien.
-Lapin de garenne
-Le lapin de garenne (Oryctolagus cuniculus) est un mammifère lagomorphe ; les effectifs sauvages sont communs en Algérie mais en déclin[26].
-Lièvre du cap
-Le lièvre du cap (Lepus capensis) est un rongeur.
-Sanglier
-Le sanglier (Sus scrofa) colonise quasiment tous les habitats au niveau de cette forêt. Lorsque le sol est humide, cet animal retourne la terre grâce à ses forts butoirs à la recherche d’invertébrés et de racines de plantes. Sa longévité varie entre 8 et 10 ans.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faune de la forêt d'Aïn Taya est riche en diversité zoologique, ornithologique et entomologique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_de_Aïn_Taya</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_A%C3%AFn_Taya</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hérisson d'Algérie</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le hérisson d'Algérie (Atelerix algirus) dans cette forêt algéroise. C'est un hérisson à ventre blanc vivant dans les régions côtières d'Algérie. Il est de couleur pâle et pèse de 700 à 950 g. Ce hérisson est une espèce protégée sur tout le territoire algérien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_de_Aïn_Taya</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_A%C3%AFn_Taya</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Lapin de garenne</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lapin de garenne (Oryctolagus cuniculus) est un mammifère lagomorphe ; les effectifs sauvages sont communs en Algérie mais en déclin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_de_Aïn_Taya</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_A%C3%AFn_Taya</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lièvre du cap</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lièvre du cap (Lepus capensis) est un rongeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forêt_de_Aïn_Taya</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_A%C3%AFn_Taya</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sanglier</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sanglier (Sus scrofa) colonise quasiment tous les habitats au niveau de cette forêt. Lorsque le sol est humide, cet animal retourne la terre grâce à ses forts butoirs à la recherche d’invertébrés et de racines de plantes. Sa longévité varie entre 8 et 10 ans.
 </t>
         </is>
       </c>
